--- a/rill-analysis/rill-analysis-report/src/test/resources/ka-cs-pie-1.xlsx
+++ b/rill-analysis/rill-analysis-report/src/test/resources/ka-cs-pie-1.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,6 +177,18 @@
   </si>
   <si>
     <t>posId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -732,15 +744,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>76198</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1063,7 +1075,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D1:D16"/>
+  <dimension ref="D1:H21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -1077,53 +1089,64 @@
     <col min="6" max="6" width="1.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:4" ht="3" customHeight="1">
+    <row r="1" spans="4:6" ht="3" customHeight="1">
       <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="4:4">
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="4:6">
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="4:4">
+    <row r="3" spans="4:6">
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="4:4">
+    <row r="4" spans="4:6">
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="4:4">
+    <row r="5" spans="4:6">
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="4:4">
+    <row r="6" spans="4:6">
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="4:4">
+    <row r="7" spans="4:6">
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="4:4">
+    <row r="8" spans="4:6">
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="4:4">
+    <row r="9" spans="4:6">
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="4:4">
+    <row r="10" spans="4:6">
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="4:4">
+    <row r="11" spans="4:6">
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="4:4">
+    <row r="12" spans="4:6">
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="4:4">
+    <row r="13" spans="4:6">
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="4:4">
+    <row r="14" spans="4:6">
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="4:4">
+    <row r="15" spans="4:6">
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="4:4">
+    <row r="16" spans="4:6">
       <c r="D16" s="5"/>
+    </row>
+    <row r="21" spans="8:8">
+      <c r="H21" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1296,8 +1319,8 @@
         <v>28</v>
       </c>
       <c r="C14" s="19" t="str">
-        <f>"CS饼图_"</f>
-        <v>CS饼图_</v>
+        <f>"CS饼图"</f>
+        <v>CS饼图</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="12"/>
@@ -1394,7 +1417,7 @@
         <v>其他</v>
       </c>
       <c r="D11" s="3">
-        <f>$E3</f>
+        <f>IF($E3&lt;0,0,$E3)</f>
         <v>11</v>
       </c>
     </row>

--- a/rill-analysis/rill-analysis-report/src/test/resources/ka-cs-pie-1.xlsx
+++ b/rill-analysis/rill-analysis-report/src/test/resources/ka-cs-pie-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="8220" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="8220"/>
   </bookViews>
   <sheets>
     <sheet name="trend" sheetId="5" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,6 +189,10 @@
   </si>
   <si>
     <t xml:space="preserve">   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1075,9 +1079,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D1:H21"/>
+  <dimension ref="D1:I23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="13.5"/>
   <cols>
@@ -1143,9 +1147,14 @@
     <row r="16" spans="4:6">
       <c r="D16" s="5"/>
     </row>
-    <row r="21" spans="8:8">
+    <row r="21" spans="8:9">
       <c r="H21" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="8:9">
+      <c r="I23" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1162,7 +1171,7 @@
   </sheetPr>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>

--- a/rill-analysis/rill-analysis-report/src/test/resources/ka-cs-pie-1.xlsx
+++ b/rill-analysis/rill-analysis-report/src/test/resources/ka-cs-pie-1.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,10 +189,6 @@
   </si>
   <si>
     <t xml:space="preserve">   </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1154,7 +1150,7 @@
     </row>
     <row r="23" spans="8:9">
       <c r="I23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
